--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H2">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J2">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.8299853333333332</v>
+        <v>1.306600666666667</v>
       </c>
       <c r="N2">
-        <v>2.489956</v>
+        <v>3.919802</v>
       </c>
       <c r="O2">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="P2">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="Q2">
-        <v>3.234039234642222</v>
+        <v>17.20263599856511</v>
       </c>
       <c r="R2">
-        <v>29.10635311178</v>
+        <v>154.823723987086</v>
       </c>
       <c r="S2">
-        <v>0.2952961442014975</v>
+        <v>0.5647802373559352</v>
       </c>
       <c r="T2">
-        <v>0.2952961442014975</v>
+        <v>0.5647802373559352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H3">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I3">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J3">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,22 +620,22 @@
         <v>0.033067</v>
       </c>
       <c r="O3">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="P3">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="Q3">
-        <v>0.04294854020388889</v>
+        <v>0.1451194638312222</v>
       </c>
       <c r="R3">
-        <v>0.386536861835</v>
+        <v>1.306075174481</v>
       </c>
       <c r="S3">
-        <v>0.003921578373397328</v>
+        <v>0.004764421291853188</v>
       </c>
       <c r="T3">
-        <v>0.003921578373397328</v>
+        <v>0.004764421291853188</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.896501666666667</v>
+        <v>13.16594766666667</v>
       </c>
       <c r="H4">
-        <v>11.689505</v>
+        <v>39.497843</v>
       </c>
       <c r="I4">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="J4">
-        <v>0.401720501899026</v>
+        <v>0.6940777873489595</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2881033333333334</v>
+        <v>0.2881033333333333</v>
       </c>
       <c r="N4">
-        <v>0.8643100000000001</v>
+        <v>0.86431</v>
       </c>
       <c r="O4">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="P4">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="Q4">
-        <v>1.122595118505556</v>
+        <v>3.793153409258889</v>
       </c>
       <c r="R4">
-        <v>10.10335606655</v>
+        <v>34.13838068333001</v>
       </c>
       <c r="S4">
-        <v>0.1025027793241312</v>
+        <v>0.1245331287011712</v>
       </c>
       <c r="T4">
-        <v>0.1025027793241312</v>
+        <v>0.1245331287011712</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>9.71172</v>
       </c>
       <c r="I5">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J5">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.8299853333333332</v>
+        <v>1.306600666666667</v>
       </c>
       <c r="N5">
-        <v>2.489956</v>
+        <v>3.919802</v>
       </c>
       <c r="O5">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="P5">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="Q5">
-        <v>2.68686172048</v>
+        <v>4.22977994216</v>
       </c>
       <c r="R5">
-        <v>24.18175548432</v>
+        <v>38.06801947944</v>
       </c>
       <c r="S5">
-        <v>0.2453340384870503</v>
+        <v>0.1388680269637606</v>
       </c>
       <c r="T5">
-        <v>0.2453340384870503</v>
+        <v>0.1388680269637606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>9.71172</v>
       </c>
       <c r="I6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J6">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -806,10 +806,10 @@
         <v>0.033067</v>
       </c>
       <c r="O6">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="P6">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="Q6">
         <v>0.03568193836</v>
@@ -818,10 +818,10 @@
         <v>0.32113744524</v>
       </c>
       <c r="S6">
-        <v>0.003258073897952933</v>
+        <v>0.001171474744798505</v>
       </c>
       <c r="T6">
-        <v>0.003258073897952933</v>
+        <v>0.001171474744798505</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>9.71172</v>
       </c>
       <c r="I7">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="J7">
-        <v>0.3337521163387849</v>
+        <v>0.1706596770095176</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.2881033333333334</v>
+        <v>0.2881033333333333</v>
       </c>
       <c r="N7">
-        <v>0.8643100000000001</v>
+        <v>0.86431</v>
       </c>
       <c r="O7">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="P7">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="Q7">
-        <v>0.9326596348000001</v>
+        <v>0.9326596347999999</v>
       </c>
       <c r="R7">
         <v>8.3939367132</v>
       </c>
       <c r="S7">
-        <v>0.0851600039537817</v>
+        <v>0.03062017530095855</v>
       </c>
       <c r="T7">
-        <v>0.0851600039537817</v>
+        <v>0.03062017530095855</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,13 +909,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H8">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I8">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J8">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8299853333333332</v>
+        <v>1.306600666666667</v>
       </c>
       <c r="N8">
-        <v>2.489956</v>
+        <v>3.919802</v>
       </c>
       <c r="O8">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="P8">
-        <v>0.7350786001848651</v>
+        <v>0.8137131711319011</v>
       </c>
       <c r="Q8">
-        <v>2.129570005045778</v>
+        <v>3.352465973261555</v>
       </c>
       <c r="R8">
-        <v>19.166130045412</v>
+        <v>30.17219375935399</v>
       </c>
       <c r="S8">
-        <v>0.1944484174963174</v>
+        <v>0.1100649068122053</v>
       </c>
       <c r="T8">
-        <v>0.1944484174963174</v>
+        <v>0.1100649068122053</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,13 +971,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H9">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I9">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J9">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -992,10 +992,10 @@
         <v>0.033067</v>
       </c>
       <c r="O9">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="P9">
-        <v>0.009761957268446888</v>
+        <v>0.006864390964089149</v>
       </c>
       <c r="Q9">
         <v>0.02828101836211111</v>
@@ -1004,10 +1004,10 @@
         <v>0.254529165259</v>
       </c>
       <c r="S9">
-        <v>0.002582304997096627</v>
+        <v>0.0009284949274374554</v>
       </c>
       <c r="T9">
-        <v>0.002582304997096627</v>
+        <v>0.0009284949274374556</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,13 +1033,13 @@
         <v>2.565792333333333</v>
       </c>
       <c r="H10">
-        <v>7.697377</v>
+        <v>7.697376999999999</v>
       </c>
       <c r="I10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="J10">
-        <v>0.2645273817621892</v>
+        <v>0.1352625356415228</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2881033333333334</v>
+        <v>0.2881033333333333</v>
       </c>
       <c r="N10">
-        <v>0.8643100000000001</v>
+        <v>0.86431</v>
       </c>
       <c r="O10">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="P10">
-        <v>0.2551594425466879</v>
+        <v>0.1794224379040098</v>
       </c>
       <c r="Q10">
-        <v>0.7392133238744446</v>
+        <v>0.7392133238744443</v>
       </c>
       <c r="R10">
-        <v>6.652919914870001</v>
+        <v>6.65291991487</v>
       </c>
       <c r="S10">
-        <v>0.06749665926877509</v>
+        <v>0.02426913390188003</v>
       </c>
       <c r="T10">
-        <v>0.06749665926877509</v>
+        <v>0.02426913390188004</v>
       </c>
     </row>
   </sheetData>
